--- a/files/raw/Zeitplanung.xlsx
+++ b/files/raw/Zeitplanung.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fokko\source\repos\ict-335-praxisarbeit\files\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831482D6-AAA9-4A79-AB57-61AFF055A894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE6EB43-9BAF-4C74-A9CC-D1D22D3EC369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25050" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{1EA5CFC8-9728-41E1-8E28-D9D8C07954D4}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{1EA5CFC8-9728-41E1-8E28-D9D8C07954D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$V$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$V$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Kontrollieren</t>
-  </si>
-  <si>
-    <t>Testen der App und Backend-Integration</t>
   </si>
   <si>
     <t>Auswerten</t>
@@ -265,55 +262,53 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -644,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E24D91-B141-486E-BF23-34263C9B75C6}">
-  <dimension ref="A2:AE39"/>
+  <dimension ref="A2:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,199 +657,176 @@
   <sheetData>
     <row r="2" spans="1:31" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="G3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="O3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="G4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="7">
+        <v>17</v>
+      </c>
+      <c r="H5" s="7">
+        <v>18</v>
+      </c>
+      <c r="I5" s="7">
+        <v>19</v>
+      </c>
+      <c r="J5" s="7">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7">
+        <v>21</v>
+      </c>
+      <c r="L5" s="7">
+        <v>22</v>
+      </c>
+      <c r="M5" s="7">
+        <v>23</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="7">
+        <v>24</v>
+      </c>
+      <c r="P5" s="7">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="7">
         <v>26</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-    </row>
-    <row r="3" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="R5" s="7">
+        <v>27</v>
+      </c>
+      <c r="S5" s="7">
         <v>28</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="10">
-        <v>17</v>
-      </c>
-      <c r="H5" s="10">
-        <v>18</v>
-      </c>
-      <c r="I5" s="10">
-        <v>19</v>
-      </c>
-      <c r="J5" s="10">
-        <v>20</v>
-      </c>
-      <c r="K5" s="10">
-        <v>21</v>
-      </c>
-      <c r="L5" s="10">
-        <v>22</v>
-      </c>
-      <c r="M5" s="10">
-        <v>23</v>
-      </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="10">
-        <v>24</v>
-      </c>
-      <c r="P5" s="10">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>26</v>
-      </c>
-      <c r="R5" s="10">
-        <v>27</v>
-      </c>
-      <c r="S5" s="10">
-        <v>28</v>
-      </c>
-      <c r="T5" s="10">
+      <c r="T5" s="7">
         <v>29</v>
       </c>
-      <c r="U5" s="10">
+      <c r="U5" s="7">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="8">
         <f>SUM(C7)</f>
         <v>1</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="8">
         <f>SUM(D7)</f>
         <v>1</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="9">
         <f>SUM(E7) / COUNT(E7)</f>
         <v>1</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
       <c r="V6"/>
       <c r="W6"/>
       <c r="X6"/>
@@ -867,68 +839,53 @@
       <c r="AE6"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="15">
-        <v>1</v>
-      </c>
-      <c r="D7" s="15">
-        <v>1</v>
-      </c>
-      <c r="E7" s="16">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8"/>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="8">
         <f t="shared" ref="C8:D8" si="0">SUM(C9:C11)</f>
         <v>3.5</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="8">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="9">
         <f>SUM(E9:E11) / COUNT(E9:E11)</f>
         <v>1</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
       <c r="V8"/>
       <c r="W8"/>
       <c r="X8"/>
@@ -941,128 +898,83 @@
       <c r="AE8"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="5">
         <v>0.5</v>
       </c>
-      <c r="D9" s="15">
-        <v>1</v>
-      </c>
-      <c r="E9" s="16">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="15">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5">
         <v>2</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="5">
         <v>3</v>
       </c>
-      <c r="E10" s="16">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="15">
-        <v>1</v>
-      </c>
-      <c r="D11" s="15">
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
         <v>0.5</v>
       </c>
-      <c r="E11" s="16">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12"/>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="8">
         <f t="shared" ref="C12:D12" si="1">SUM(C13)</f>
         <v>1</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="9">
         <f>SUM(E13) / COUNT(E13)</f>
         <v>1</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
       <c r="V12"/>
       <c r="W12"/>
       <c r="X12"/>
@@ -1075,68 +987,46 @@
       <c r="AE12"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="15">
-        <v>1</v>
-      </c>
-      <c r="D13" s="15">
-        <v>1</v>
-      </c>
-      <c r="E13" s="16">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14"/>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="8">
         <f>SUM(C15:C19)</f>
         <v>12</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="8">
         <f>SUM(D15:D19)</f>
         <v>5</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="9">
         <f>SUM(E15:E19) / COUNT(E15:E19)</f>
         <v>0.2</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
+      <c r="G14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
       <c r="V14"/>
       <c r="W14"/>
       <c r="X14"/>
@@ -1149,188 +1039,109 @@
       <c r="AE14"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="15">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="5">
         <v>4</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="5">
         <v>5</v>
       </c>
-      <c r="E15" s="16">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
+      <c r="E15" s="11">
+        <v>1</v>
+      </c>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="5">
         <v>2</v>
       </c>
-      <c r="D16" s="15">
-        <v>0</v>
-      </c>
-      <c r="E16" s="16">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0</v>
+      </c>
+      <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="5">
         <v>3</v>
       </c>
-      <c r="D17" s="15">
-        <v>0</v>
-      </c>
-      <c r="E17" s="16">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="15">
-        <v>1</v>
-      </c>
-      <c r="D18" s="15">
-        <v>0</v>
-      </c>
-      <c r="E18" s="16">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0</v>
+      </c>
+      <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="5">
         <v>2</v>
       </c>
-      <c r="D19" s="15">
-        <v>0</v>
-      </c>
-      <c r="E19" s="16">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20"/>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="12">
-        <f>SUM(C21:C22)</f>
-        <v>6</v>
-      </c>
-      <c r="D20" s="12">
-        <f>SUM(D21:D22)</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="13">
-        <f>SUM(E21:E22) / COUNT(E21:E22)</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
+      <c r="C20" s="8">
+        <f>SUM(C21:C21)</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="8">
+        <f>SUM(D21:D21)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <f>SUM(E21:E21) / COUNT(E21:E21)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="I20" s="14"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
       <c r="V20"/>
       <c r="W20"/>
       <c r="X20"/>
@@ -1343,262 +1154,165 @@
       <c r="AE20"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="15">
-        <v>1</v>
-      </c>
-      <c r="D21" s="15">
-        <v>0</v>
-      </c>
-      <c r="E21" s="16">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0</v>
+      </c>
+      <c r="T21" s="12"/>
+    </row>
+    <row r="22" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="15">
-        <v>5</v>
-      </c>
-      <c r="D22" s="15">
-        <v>0</v>
-      </c>
-      <c r="E22" s="16">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-    </row>
-    <row r="23" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23"/>
-      <c r="B23" s="11" t="s">
+      <c r="C22" s="8">
+        <f t="shared" ref="C22:D22" si="2">SUM(C23:C25)</f>
+        <v>4.5</v>
+      </c>
+      <c r="D22" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
+        <f>SUM(E23:E25) / COUNT(E23:E25)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="I22" s="14"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="12">
-        <f t="shared" ref="C23:D23" si="2">SUM(C24:C26)</f>
-        <v>4.5</v>
-      </c>
-      <c r="D23" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="13">
-        <f>SUM(E24:E26) / COUNT(E24:E26)</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23"/>
-      <c r="W23"/>
-      <c r="X23"/>
-      <c r="Y23"/>
-      <c r="Z23"/>
-      <c r="AA23"/>
-      <c r="AB23"/>
-      <c r="AC23"/>
-      <c r="AD23"/>
-      <c r="AE23"/>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0</v>
+      </c>
+      <c r="T23" s="12"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="15">
-        <v>1</v>
-      </c>
-      <c r="D24" s="15">
-        <v>0</v>
-      </c>
-      <c r="E24" s="16">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="3"/>
+      <c r="C24" s="5">
+        <v>3</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0</v>
+      </c>
+      <c r="T24" s="12"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="15">
-        <v>3</v>
-      </c>
-      <c r="D25" s="15">
-        <v>0</v>
-      </c>
-      <c r="E25" s="16">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="3"/>
+      <c r="C25" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0</v>
+      </c>
+      <c r="U25" s="12"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="15">
-        <v>0.5</v>
+        <f>SUM(C6,C8,C12,C14,C20,C22)</f>
+        <v>23</v>
       </c>
       <c r="D26" s="15">
-        <v>0</v>
+        <f>SUM(D6,D8,D12,D14,D20,D22)</f>
+        <v>11.5</v>
       </c>
       <c r="E26" s="16">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="17"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+        <f>SUM(E6,E8,E12,E14,E20,E22) / COUNT(E6,E8,E12,E14,E20,E22)</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="G26" s="17">
+        <v>17</v>
+      </c>
+      <c r="H26" s="17">
+        <v>18</v>
+      </c>
+      <c r="I26" s="17">
+        <v>19</v>
+      </c>
+      <c r="J26" s="17">
+        <v>20</v>
+      </c>
+      <c r="K26" s="17">
+        <v>21</v>
+      </c>
+      <c r="L26" s="17">
         <v>22</v>
       </c>
-      <c r="C27" s="20">
-        <f>SUM(C6,C8,C12,C14,C20,C23)</f>
+      <c r="M26" s="17">
+        <v>23</v>
+      </c>
+      <c r="O26" s="17">
+        <v>24</v>
+      </c>
+      <c r="P26" s="17">
+        <v>25</v>
+      </c>
+      <c r="Q26" s="17">
+        <v>26</v>
+      </c>
+      <c r="R26" s="17">
+        <v>27</v>
+      </c>
+      <c r="S26" s="17">
         <v>28</v>
       </c>
-      <c r="D27" s="20">
-        <f>SUM(D6,D8,D12,D14,D20,D23)</f>
-        <v>11.5</v>
-      </c>
-      <c r="E27" s="21">
-        <f>SUM(E6,E8,E12,E14,E20,E23) / COUNT(E6,E8,E12,E14,E20,E23)</f>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="22">
-        <v>17</v>
-      </c>
-      <c r="H27" s="22">
-        <v>18</v>
-      </c>
-      <c r="I27" s="22">
-        <v>19</v>
-      </c>
-      <c r="J27" s="22">
-        <v>20</v>
-      </c>
-      <c r="K27" s="22">
-        <v>21</v>
-      </c>
-      <c r="L27" s="22">
-        <v>22</v>
-      </c>
-      <c r="M27" s="22">
-        <v>23</v>
-      </c>
-      <c r="N27" s="3"/>
-      <c r="O27" s="22">
-        <v>24</v>
-      </c>
-      <c r="P27" s="22">
-        <v>25</v>
-      </c>
-      <c r="Q27" s="22">
-        <v>26</v>
-      </c>
-      <c r="R27" s="22">
-        <v>27</v>
-      </c>
-      <c r="S27" s="22">
-        <v>28</v>
-      </c>
-      <c r="T27" s="22">
+      <c r="T26" s="17">
         <v>29</v>
       </c>
-      <c r="U27" s="22">
+      <c r="U26" s="17">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P39" t="s">
+    <row r="38" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P38" t="s">
         <v>12</v>
       </c>
     </row>

--- a/files/raw/Zeitplanung.xlsx
+++ b/files/raw/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fokko\source\repos\ict-335-praxisarbeit\files\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE6EB43-9BAF-4C74-A9CC-D1D22D3EC369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1228545F-0B84-4E09-9457-79282FF3C19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{1EA5CFC8-9728-41E1-8E28-D9D8C07954D4}"/>
   </bookViews>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E24D91-B141-486E-BF23-34263C9B75C6}">
   <dimension ref="A2:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,11 +1012,11 @@
       </c>
       <c r="D14" s="8">
         <f>SUM(D15:D19)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E14" s="9">
         <f>SUM(E15:E19) / COUNT(E15:E19)</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="10"/>
       <c r="N14" s="10"/>
@@ -1061,10 +1061,10 @@
         <v>2</v>
       </c>
       <c r="D16" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="12"/>
     </row>
@@ -1076,10 +1076,10 @@
         <v>3</v>
       </c>
       <c r="D17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="12"/>
     </row>
@@ -1091,10 +1091,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="12"/>
     </row>
@@ -1106,10 +1106,10 @@
         <v>2</v>
       </c>
       <c r="D19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="12"/>
     </row>
@@ -1124,11 +1124,11 @@
       </c>
       <c r="D20" s="8">
         <f>SUM(D21:D21)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E20" s="9">
         <f>SUM(E21:E21) / COUNT(E21:E21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -1161,10 +1161,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E21" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" s="12"/>
     </row>
@@ -1179,11 +1179,11 @@
       </c>
       <c r="D22" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E22" s="9">
         <f>SUM(E23:E25) / COUNT(E23:E25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -1215,10 +1215,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" s="12"/>
     </row>
@@ -1230,10 +1230,10 @@
         <v>3</v>
       </c>
       <c r="D24" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="12"/>
     </row>
@@ -1245,10 +1245,10 @@
         <v>0.5</v>
       </c>
       <c r="D25" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E25" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" s="12"/>
     </row>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="D26" s="15">
         <f>SUM(D6,D8,D12,D14,D20,D22)</f>
-        <v>11.5</v>
+        <v>23.5</v>
       </c>
       <c r="E26" s="16">
         <f>SUM(E6,E8,E12,E14,E20,E22) / COUNT(E6,E8,E12,E14,E20,E22)</f>
-        <v>0.53333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26" s="17">
         <v>17</v>
